--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB5ECFF-0C42-4990-A9DF-458F6E22545A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C995BD-B129-4B3D-8C0E-6C478FADD1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2790" windowWidth="24525" windowHeight="12975" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24525" windowHeight="12975" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +70,41 @@
   </si>
   <si>
     <t>9002,9001,3001^500,500,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動メールを送るときのサンプルです。</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送るアイテムデータ</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -76,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,21 +128,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -115,8 +203,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,4 +618,65 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4794843-C8EB-4A67-A448-905E3DF5448B}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C995BD-B129-4B3D-8C0E-6C478FADD1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCCF33D-C936-455C-ABBE-3302B935D397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24525" windowHeight="12975" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -58,18 +49,6 @@
   </si>
   <si>
     <t>クラパスからのボーナスです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9002^160</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9002,9001^330,300</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9002,9001,3001^500,500,1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -105,6 +84,18 @@
     <rPh sb="0" eb="1">
       <t>オク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9000^65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9000,9001^130,300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9000,9001,3001^215,500,1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -546,16 +537,16 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,10 +585,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -608,14 +599,15 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -628,51 +620,51 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCCF33D-C936-455C-ABBE-3302B935D397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61578EE9-B2DD-4AE6-BB6A-5F917DA89A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>クラパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラパスからのボーナスです。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -96,6 +92,27 @@
   </si>
   <si>
     <t>9000,9001,3001^215,500,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラパス(980円)からのボーナスです。</t>
+    <rPh sb="8" eb="9">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラパス(1960円)からのボーナスです。</t>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラパス(3060円)からのボーナスです。</t>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -537,7 +554,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -568,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -582,10 +599,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -596,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
@@ -634,7 +651,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
@@ -644,7 +661,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
@@ -654,7 +671,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
@@ -664,7 +681,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61578EE9-B2DD-4AE6-BB6A-5F917DA89A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBDD52-2CFA-4BD5-977B-C561A38D69CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -113,6 +113,34 @@
     <rPh sb="9" eb="10">
       <t>エン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101,102^10,10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>103,104^20,20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>101,102,103,104^30,30,30,30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス test100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス test101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボーナス test102</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -242,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FA4072D-3277-4A71-AA06-C2E8CA360433}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7822E046-1B77-40BC-AC1A-A7874E298C6A}" name="Title"/>
@@ -551,19 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -591,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,7 +634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -617,6 +646,132 @@
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1005</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -637,49 +792,49 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBDD52-2CFA-4BD5-977B-C561A38D69CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67547E85-8F17-45A5-B0A4-194E4F68756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -143,12 +143,28 @@
     <t>ログインボーナス test102</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ポイント交換申請の受付完了</t>
+  </si>
+  <si>
+    <t>ポイント交換申請を受付けました。
+・受付No
+%d　　　　　　　　　　
+締切日後、５営業日以内に以下メールアドレス宛へAmazonギフト券を
+お送りいたします。
+・メールアドレス
+%s
+毎月5日と20日が締め切り日です。
+※申請状況により、お送りする日にちが前後する場合がございます。
+何卒ご理解、ご了承の程お願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +186,14 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +275,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -270,8 +300,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FA4072D-3277-4A71-AA06-C2E8CA360433}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7822E046-1B77-40BC-AC1A-A7874E298C6A}" name="Title"/>
@@ -579,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -772,6 +802,17 @@
       </c>
       <c r="D13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="375" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67547E85-8F17-45A5-B0A4-194E4F68756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2D3C7-6801-436C-A655-951B471EF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="90" yWindow="135" windowWidth="16005" windowHeight="15090" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -113,34 +113,6 @@
     <rPh sb="9" eb="10">
       <t>エン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボーナス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101,102^10,10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>103,104^20,20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>101,102,103,104^30,30,30,30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボーナス test100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボーナス test101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインボーナス test102</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -157,6 +129,981 @@
 毎月5日と20日が締め切り日です。
 ※申請状況により、お送りする日にちが前後する場合がございます。
 何卒ご理解、ご了承の程お願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス１日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス２日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス３日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス４日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス５日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス６日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス７日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス８日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス９日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス１０日目ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニチメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナスラスト３日ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナスラスト２日ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス最終日ぴ</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイシュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【木材　×　100個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【黄色のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【白のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【ピンクのコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【オレンジのコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【赤のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【紫のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【青のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【水色のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【黄緑のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【黒のコスモス中　×　2個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【空の設計図　×　1個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001^100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>550^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>551^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>552^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>553^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>554^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>555^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>556^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>557^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>558^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>559^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日のログインボーナスはこれ！
+【草　×　10個！】
+新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
+</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600^10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001^1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,8 +1247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D18" totalsRowShown="0">
+  <autoFilter ref="A1:D18" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FA4072D-3277-4A71-AA06-C2E8CA360433}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7822E046-1B77-40BC-AC1A-A7874E298C6A}" name="Title"/>
@@ -609,16 +1556,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.25" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -678,141 +1623,197 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1013</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>10000</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="375" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>10000</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +1831,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2D3C7-6801-436C-A655-951B471EF65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4200D27-C473-47EF-B7D4-568B17482FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="135" windowWidth="16005" windowHeight="15090" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="345" yWindow="585" windowWidth="24885" windowHeight="14445" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,36 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>秋！ログインボーナスラスト３日ぴ</t>
-    <rPh sb="0" eb="1">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秋！ログインボーナスラスト２日ぴ</t>
-    <rPh sb="0" eb="1">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秋！ログインボーナス最終日ぴ</t>
-    <rPh sb="0" eb="1">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>サイシュウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">今日のログインボーナスはこれ！
 【木材　×　100個！】
 新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
@@ -811,13 +781,202 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">今日のログインボーナスはこれ！
+    <t>1001^100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>550^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>551^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>552^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>553^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>554^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>555^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>556^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>557^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>558^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>559^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600^10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3001^1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナスラスト３日</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナスラスト２日</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋！ログインボーナス最終日</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイシュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のログインボーナスはこれ！
+【草　×　10個！】
+新しく追加されたミッション機能は、
+達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、
+ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、
+乗れる巨大なコスモスをたくさんゲットして、
+ホームタウンで秋をたのしもう！</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のログインボーナスはこれ！
+【空の設計図　×　1個！】
+新しく追加されたミッション機能は、
+達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、
+ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、
+乗れる巨大なコスモスをたくさんゲットして、
+ホームタウンで秋をたのしもう！</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のログインボーナスはこれ！
+【黒のコスモス中　×　2個！】
+新しく追加されたミッション機能は、
+達成するとアイテムがゲットできるよ！
+作業台で掲示板をクラフトすると、
+ミッションが受けられるようになるよ！
+『秋到来！紅葉ブロックガチャ』も絶賛実施中！
+今だけの紅葉ブロックや、
+乗れる巨大なコスモスをたくさんゲットして、
+ホームタウンで秋をたのしもう！</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モクザイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タッセイ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>サギョウダイ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ゼッサン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>コウヨウ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のログインボーナスはこれ！
 【黄緑のコスモス中　×　2個！】
 新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
 作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
 『秋到来！紅葉ブロックガチャ』も絶賛実施中！
-今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
-</t>
+今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！</t>
     <rPh sb="0" eb="2">
       <t>キョウ</t>
     </rPh>
@@ -869,241 +1028,6 @@
     <rPh sb="171" eb="172">
       <t>アキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日のログインボーナスはこれ！
-【黒のコスモス中　×　2個！】
-新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
-作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
-『秋到来！紅葉ブロックガチャ』も絶賛実施中！
-今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
-</t>
-    <rPh sb="0" eb="2">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モクザイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>サギョウダイ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ゼッサン</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>コウヨウ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>アキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日のログインボーナスはこれ！
-【空の設計図　×　1個！】
-新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
-作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
-『秋到来！紅葉ブロックガチャ』も絶賛実施中！
-今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
-</t>
-    <rPh sb="0" eb="2">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>モクザイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>サギョウダイ</t>
-    </rPh>
-    <rPh sb="74" eb="77">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ゼッサン</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>コウヨウ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>アキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1001^100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>550^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>551^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>552^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>553^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>554^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>555^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>556^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>557^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>558^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>559^2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日のログインボーナスはこれ！
-【草　×　10個！】
-新しく追加されたミッション機能は、達成するとアイテムがゲットできるよ！
-作業台で掲示板をクラフトすると、ミッションが受けられるようになるよ！
-『秋到来！紅葉ブロックガチャ』も絶賛実施中！
-今だけの紅葉ブロックや、乗れる巨大なコスモスをたくさんゲットして、ホームタウンで秋をたのしもう！
-</t>
-    <rPh sb="0" eb="2">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モクザイ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>タッセイ</t>
-    </rPh>
-    <rPh sb="65" eb="68">
-      <t>サギョウダイ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ケイジバン</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ゼッサン</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>コウヨウ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>アキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>600^10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3001^1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1558,7 +1482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1631,10 +1557,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1645,10 +1571,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1659,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1673,10 +1599,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1687,10 +1613,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1701,10 +1627,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1715,10 +1641,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1729,10 +1655,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1743,13 +1669,13 @@
         <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -1757,52 +1683,52 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="243.75" x14ac:dyDescent="0.4">

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4200D27-C473-47EF-B7D4-568B17482FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E305F6-A259-4CCF-AB21-B2CF1B58BD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="585" windowWidth="24885" windowHeight="14445" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1028,6 +1028,59 @@
     <rPh sb="171" eb="172">
       <t>アキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトチュートリアル完了(仮)</t>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフトチュートリアル完了 メール内容(仮)</t>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図チュートリアル完了(仮)</t>
+    <rPh sb="0" eb="3">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図チュートリアル完了 メール内容(仮)</t>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>105,101^100,100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1171,8 +1224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FA4072D-3277-4A71-AA06-C2E8CA360433}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7822E046-1B77-40BC-AC1A-A7874E298C6A}" name="Title"/>
@@ -1480,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1740,6 +1793,34 @@
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E305F6-A259-4CCF-AB21-B2CF1B58BD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49234D5E-B376-4A47-B85B-220591E04E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -1031,56 +1031,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クラフトチュートリアル完了(仮)</t>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラフトチュートリアル完了 メール内容(仮)</t>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図チュートリアル完了(仮)</t>
-    <rPh sb="0" eb="3">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計図チュートリアル完了 メール内容(仮)</t>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>105,101^100,100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフターへの道</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ブロックの世界へようこそ！
+ぴーちゃんだぴ。
+クラフターとして一歩を踏み出したキミに
+ブロックをプレゼントするぴ！
+▼プレゼント
+石のブロック　×　100個
+土のブロック　×　100個
+もちものから確認できるよ。
+イメージしたものを作ってみてね！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラフター中級者</t>
+    <rPh sb="5" eb="8">
+      <t>チュウキュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+こんにちわ。
+ぴーちゃんだぴ。
+たくさんクラフトしたキミに
+「空の設計図」をプレゼントするぴ！
+▼プレゼント
+空の設計図　×　１
+自慢のクラフトをコピーしたり
+「マップ」から行ける「ショップ広場」で
+設計図を販売することもできるぞ！
+キミが作る世界を楽しみにしてるぴ！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1535,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1795,29 +1784,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2001</v>
       </c>
       <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49234D5E-B376-4A47-B85B-220591E04E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EA8B9-A0BB-4C86-9579-9957FD2BA9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -1039,6 +1039,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>クラフター中級者</t>
+    <rPh sb="5" eb="8">
+      <t>チュウキュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 ブロックの世界へようこそ！
 ぴーちゃんだぴ。
@@ -1049,13 +1056,6 @@
 土のブロック　×　100個
 もちものから確認できるよ。
 イメージしたものを作ってみてね！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラフター中級者</t>
-    <rPh sb="5" eb="8">
-      <t>チュウキュウシャ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1525,7 +1525,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1784,7 +1784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2001</v>
       </c>
@@ -1792,18 +1792,18 @@
         <v>58</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>61</v>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742EA8B9-A0BB-4C86-9579-9957FD2BA9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EAC7E-B6CC-46AA-A8E6-21678662CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -66,13 +66,6 @@
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本文</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1070,6 +1063,43 @@
 「マップ」から行ける「ショップ広場」で
 設計図を販売することもできるぞ！
 キミが作る世界を楽しみにしてるぴ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;おめでとうございます！&lt;/size&gt;
+&lt;b&gt;&lt;color=#ff0000ff&gt;設計図%0%&lt;/color&gt;&lt;/b&gt;が購入されました！
+購入されたことで、&lt;b&gt;&lt;color=#ff0000ff&gt;%1%ポイントを獲得&lt;/color&gt;&lt;/b&gt;しました！
+「メニュー」→「ショップ市場」から、
+ポイントが増えているか確認してみてください！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文 ※%x% (x:0はじまりの数値)で囲った場合プログラム側で置換)</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【祝】設計図が売れました！</t>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1213,8 +1243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FA4072D-3277-4A71-AA06-C2E8CA360433}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7822E046-1B77-40BC-AC1A-A7874E298C6A}" name="Title"/>
@@ -1522,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1557,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -1571,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1585,10 +1615,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1596,13 +1626,13 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1610,13 +1640,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1624,13 +1654,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1638,13 +1668,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1652,13 +1682,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1666,13 +1696,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1680,13 +1710,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1694,13 +1724,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1708,13 +1738,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
@@ -1722,13 +1752,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1736,13 +1766,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1750,13 +1780,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1764,13 +1794,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="243.75" x14ac:dyDescent="0.4">
@@ -1778,10 +1808,10 @@
         <v>10000</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1789,13 +1819,13 @@
         <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="281.25" x14ac:dyDescent="0.4">
@@ -1803,13 +1833,24 @@
         <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1868,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1864,7 +1905,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -1874,7 +1915,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EAC7E-B6CC-46AA-A8E6-21678662CD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049C1A7-9B91-462A-8877-4CBCED483DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1066,6 +1066,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>9002^110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>&lt;size=30&gt;おめでとうございます！&lt;/size&gt;
 &lt;b&gt;&lt;color=#ff0000ff&gt;設計図%0%&lt;/color&gt;&lt;/b&gt;が購入されました！
 購入されたことで、&lt;b&gt;&lt;color=#ff0000ff&gt;%1%ポイントを獲得&lt;/color&gt;&lt;/b&gt;しました！
@@ -1096,9 +1100,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>&lt;size=30&gt;おめでとうございます！&lt;/size&gt;
+初回設計時アップロードが完了したので、
+お礼に、&lt;b&gt;&lt;color=#ff0000ff&gt;「110ポイント」&lt;/color&gt;&lt;/b&gt;をプレゼント！
+他の人の設計図を購入してみたり、1,000ポイント以上集めると
+なんと&lt;b&gt;&lt;color=#ff0000ff&gt;「ギフト券」と交換もできる！&lt;/color&gt;&lt;/b&gt;
+いいねをしてもポイントがもらえるので、
+毎日チェックしていいねをしてみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【祝】設計図が売れました！</t>
     <rPh sb="7" eb="8">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【祝】初回設計図公開</t>
+    <rPh sb="1" eb="2">
+      <t>シュク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1243,8 +1273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}" name="テーブル1" displayName="テーブル1" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{AA61FD4E-CF8C-439C-8ADF-5714B38D8A14}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0FA4072D-3277-4A71-AA06-C2E8CA360433}" name="ID"/>
     <tableColumn id="2" xr3:uid="{7822E046-1B77-40BC-AC1A-A7874E298C6A}" name="Title"/>
@@ -1552,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1842,15 +1872,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A21">
+        <v>2003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="150" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>2004</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>61</v>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +1949,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049C1A7-9B91-462A-8877-4CBCED483DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378274D5-FBA2-481C-A859-6A7CCFCD5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -1070,66 +1070,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>本文 ※%x% (x:0はじまりの数値)で囲った場合プログラム側で置換)</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【祝】設計図が売れました！</t>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【祝】初回設計図公開</t>
+    <rPh sb="1" eb="2">
+      <t>シュク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;size=30&gt;おめでとうございます！&lt;/size&gt;
+初回設計図アップロードが完了したので、
+お礼に、&lt;b&gt;&lt;color=#ff0000ff&gt;「110ポイント」&lt;/color&gt;&lt;/b&gt;をプレゼント！
+他の人の設計図を購入してみたり、1,000ポイント以上集めると
+なんと&lt;b&gt;&lt;color=#ff0000ff&gt;「ギフト券」と交換もできる！&lt;/color&gt;&lt;/b&gt;
+ユーザーの設計図に、&lt;b&gt;&lt;color=#ffff00ff&gt;「いいね」をしてもポイントがもらえる&lt;/color&gt;&lt;/b&gt;ので、
+毎日設計図市場をチェックして、「いいね」をしてみよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>&lt;size=30&gt;おめでとうございます！&lt;/size&gt;
 &lt;b&gt;&lt;color=#ff0000ff&gt;設計図%0%&lt;/color&gt;&lt;/b&gt;が購入されました！
 購入されたことで、&lt;b&gt;&lt;color=#ff0000ff&gt;%1%ポイントを獲得&lt;/color&gt;&lt;/b&gt;しました！
 「メニュー」→「ショップ市場」から、
-ポイントが増えているか確認してみてください！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本文 ※%x% (x:0はじまりの数値)で囲った場合プログラム側で置換)</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;size=30&gt;おめでとうございます！&lt;/size&gt;
-初回設計時アップロードが完了したので、
-お礼に、&lt;b&gt;&lt;color=#ff0000ff&gt;「110ポイント」&lt;/color&gt;&lt;/b&gt;をプレゼント！
-他の人の設計図を購入してみたり、1,000ポイント以上集めると
-なんと&lt;b&gt;&lt;color=#ff0000ff&gt;「ギフト券」と交換もできる！&lt;/color&gt;&lt;/b&gt;
-いいねをしてもポイントがもらえるので、
-毎日チェックしていいねをしてみよう！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【祝】設計図が売れました！</t>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【祝】初回設計図公開</t>
-    <rPh sb="1" eb="2">
-      <t>シュク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>セッケイズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウカイ</t>
-    </rPh>
+ポイントが増えているか確認してみてください！
+この調子で設計図市場を盛り上げよう！</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1585,7 +1586,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1877,24 +1878,24 @@
         <v>2003</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="150" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1950,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378274D5-FBA2-481C-A859-6A7CCFCD5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4D1F71-B365-45FE-A162-CDF8BD8EB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
@@ -112,19 +112,6 @@
     <t>ポイント交換申請の受付完了</t>
   </si>
   <si>
-    <t>ポイント交換申請を受付けました。
-・受付No
-%d　　　　　　　　　　
-締切日後、５営業日以内に以下メールアドレス宛へAmazonギフト券を
-お送りいたします。
-・メールアドレス
-%s
-毎月5日と20日が締め切り日です。
-※申請状況により、お送りする日にちが前後する場合がございます。
-何卒ご理解、ご了承の程お願いいたします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秋！ログインボーナス１日目ぴ</t>
     <rPh sb="0" eb="1">
       <t>アキ</t>
@@ -1131,6 +1118,19 @@
 「メニュー」→「ショップ市場」から、
 ポイントが増えているか確認してみてください！
 この調子で設計図市場を盛り上げよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント交換申請を受付けました。
+・受付No
+%s　　　　　　
+締切日後、５営業日以内に以下メールアドレス宛へAmazonギフト券を
+お送りいたします。
+・メールアドレス
+%s
+毎月5日と20日が締め切り日です。
+※申請状況により、お送りする日にちが前後する場合がございます。
+何卒ご理解、ご了承の程お願いいたします。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1657,13 +1657,13 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1671,13 +1671,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1685,13 +1685,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1699,13 +1699,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1713,13 +1713,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1727,13 +1727,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1741,13 +1741,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1755,13 +1755,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1769,13 +1769,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
@@ -1783,13 +1783,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1797,13 +1797,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1811,13 +1811,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1825,13 +1825,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="243.75" x14ac:dyDescent="0.4">
@@ -1842,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1850,13 +1850,13 @@
         <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="281.25" x14ac:dyDescent="0.4">
@@ -1864,13 +1864,13 @@
         <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="168.75" x14ac:dyDescent="0.4">
@@ -1878,13 +1878,13 @@
         <v>2003</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
@@ -1892,10 +1892,10 @@
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">

--- a/Config/Excel/Mail.xlsx
+++ b/Config/Excel/Mail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378274D5-FBA2-481C-A859-6A7CCFCD5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5995348-476B-42E4-8DF9-DA8541CF8CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7BE62E6E-9349-455D-97A3-DFDC7C33A2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,19 +112,6 @@
     <t>ポイント交換申請の受付完了</t>
   </si>
   <si>
-    <t>ポイント交換申請を受付けました。
-・受付No
-%d　　　　　　　　　　
-締切日後、５営業日以内に以下メールアドレス宛へAmazonギフト券を
-お送りいたします。
-・メールアドレス
-%s
-毎月5日と20日が締め切り日です。
-※申請状況により、お送りする日にちが前後する場合がございます。
-何卒ご理解、ご了承の程お願いいたします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>秋！ログインボーナス１日目ぴ</t>
     <rPh sb="0" eb="1">
       <t>アキ</t>
@@ -1131,6 +1118,19 @@
 「メニュー」→「ショップ市場」から、
 ポイントが増えているか確認してみてください！
 この調子で設計図市場を盛り上げよう！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント交換申請を受付けました。
+・受付No
+%s　　　　　　　　　　
+締切日後、５営業日以内に以下メールアドレス宛へAmazonギフト券を
+お送りいたします。
+・メールアドレス
+%s
+毎月5日と20日が締め切り日です。
+※申請状況により、お送りする日にちが前後する場合がございます。
+何卒ご理解、ご了承の程お願いいたします。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC8736-B9B1-4D33-81E6-9F6B73F4B85D}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1657,13 +1657,13 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1671,13 +1671,13 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1685,13 +1685,13 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1699,13 +1699,13 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1713,13 +1713,13 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1727,13 +1727,13 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1741,13 +1741,13 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1755,13 +1755,13 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="206.25" x14ac:dyDescent="0.4">
@@ -1769,13 +1769,13 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
@@ -1783,13 +1783,13 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1797,13 +1797,13 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1811,13 +1811,13 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1825,13 +1825,13 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="243.75" x14ac:dyDescent="0.4">
@@ -1842,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="262.5" x14ac:dyDescent="0.4">
@@ -1850,13 +1850,13 @@
         <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="281.25" x14ac:dyDescent="0.4">
@@ -1864,13 +1864,13 @@
         <v>2002</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="168.75" x14ac:dyDescent="0.4">
@@ -1878,13 +1878,13 @@
         <v>2003</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="187.5" x14ac:dyDescent="0.4">
@@ -1892,10 +1892,10 @@
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
